--- a/materials/Experiments.xlsx
+++ b/materials/Experiments.xlsx
@@ -1,25 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haime\OneDrive\Documents\GitHub\dcsp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haime\OneDrive\Documents\GitHub\Hybrid-QkNN\materials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C14093EF-FB52-4D20-ABB4-64AC8E4DF33E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D986FF8-C3AF-4536-B4AB-1176B8AC8220}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="classical_knn" sheetId="8" r:id="rId1"/>
     <sheet name="classical knn_acc" sheetId="9" r:id="rId2"/>
-    <sheet name="qknn_acc" sheetId="7" r:id="rId3"/>
-    <sheet name="qknn_test" sheetId="6" r:id="rId4"/>
-    <sheet name="integrated_swap_test" sheetId="3" r:id="rId5"/>
-    <sheet name="integrated_swap_test_re" sheetId="5" r:id="rId6"/>
-    <sheet name="integrated_swap_test_se" sheetId="4" r:id="rId7"/>
+    <sheet name="qknn1_acc" sheetId="11" r:id="rId3"/>
+    <sheet name="qknn1_test" sheetId="10" r:id="rId4"/>
+    <sheet name="qknn_acc" sheetId="7" r:id="rId5"/>
+    <sheet name="qknn_test" sheetId="6" r:id="rId6"/>
+    <sheet name="integrated_swap_test" sheetId="3" r:id="rId7"/>
+    <sheet name="integrated_swap_test_re" sheetId="5" r:id="rId8"/>
+    <sheet name="integrated_swap_test_se" sheetId="4" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="121">
   <si>
     <t xml:space="preserve">           dimensions
  iterator</t>
@@ -740,18 +742,168 @@
   <si>
     <t>Average</t>
   </si>
+  <si>
+    <t>Predict labels:  [2, 2]
+Test labels:  [2, 2]
+accuracy:  1.0
+precision:  1.0
+recall:  1.0
+matrix:  [[2]]</t>
+  </si>
+  <si>
+    <t>Predict labels:  [2, 0]
+Test labels:  [1, 2]
+accuracy:  0.0
+precision:  0.0
+recall:  0.0
+matrix:  [[0 0 1]
+ [0 0 0]
+ [0 1 0]]</t>
+  </si>
+  <si>
+    <t>Predict labels:  [2, 2]
+Test labels:  [1, 2]
+accuracy:  0.5
+precision:  1.0
+recall:  0.5
+matrix:  [[0 0]
+ [1 1]]</t>
+  </si>
+  <si>
+    <t>Predict labels:  [2, 1, 0, 1]
+Test labels:  [1, 2, 0, 2]
+accuracy:  0.25
+precision:  0.25
+recall:  0.25
+matrix:  [[1 0 0]
+ [0 0 2]
+ [0 1 0]]</t>
+  </si>
+  <si>
+    <t>Predict labels:  [0, 0, 2, 2]
+Test labels:  [0, 1, 2, 1]
+accuracy:  0.5
+precision:  1.0
+recall:  0.5
+matrix:  [[1 1 0]
+ [0 0 0]
+ [0 1 1]]</t>
+  </si>
+  <si>
+    <t>Predict labels:  [1, 0, 2, 0]
+Test labels:  [1, 0, 1, 0]
+accuracy:  0.75
+precision:  0.625
+recall:  0.75
+matrix:  [[2 0 0]
+ [0 1 0]
+ [0 1 0]]</t>
+  </si>
+  <si>
+    <t>Predict labels:  [0, 2, 0, 2, 0, 1, 2, 2, 1]
+Test labels:  [1, 0, 0, 2, 0, 0, 1, 1, 1]
+accuracy:  0.4444444444444444
+precision:  0.6666666666666666
+recall:  0.4444444444444444
+matrix:  [[2 1 0]
+ [1 1 0]
+ [1 2 1]]</t>
+  </si>
+  <si>
+    <t>Predict labels:  [0, 1, 1, 2, 0, 2, 0, 0, 0]
+Test labels:  [1, 2, 1, 2, 0, 2, 1, 2, 0]
+accuracy:  0.5555555555555556
+precision:  0.7407407407407408
+recall:  0.5555555555555556
+matrix:  [[2 2 1]
+ [0 1 1]
+ [0 0 2]]</t>
+  </si>
+  <si>
+    <t>Predict labels:  [0, 0, 2, 1, 0, 0, 0, 1, 2]
+Test labels:  [0, 0, 2, 1, 0, 1, 0, 0, 1]
+accuracy:  0.6666666666666666
+precision:  0.7407407407407408
+recall:  0.6666666666666666
+matrix:  [[4 1 0]
+ [1 1 0]
+ [0 1 1]]</t>
+  </si>
+  <si>
+    <t>Predict labels:  [0, 1, 1, 2, 1, 1, 0, 0, 2, 1, 0, 2, 1, 2, 0, 2, 2, 0, 1]
+Test labels:  [1, 1, 0, 1, 1, 2, 2, 2, 1, 1, 0, 1, 2, 0, 0, 1, 2, 0, 2]
+accuracy:  0.3684210526315789
+precision:  0.3802631578947368
+recall:  0.3684210526315789
+matrix:  [[3 1 2]
+ [1 3 3]
+ [1 4 1]]</t>
+  </si>
+  <si>
+    <t>Predict labels:  [2, 2, 0, 0, 0, 1, 0, 0, 0, 1, 1, 0, 0, 0, 2, 0, 0, 2, 0]
+Test labels:  [0, 2, 0, 1, 2, 2, 2, 2, 1, 1, 2, 0, 0, 1, 1, 2, 0, 1, 2]
+accuracy:  0.3157894736842105
+precision:  0.5578947368421053
+recall:  0.3157894736842105
+matrix:  [[4 3 5]
+ [0 1 2]
+ [1 2 1]]</t>
+  </si>
+  <si>
+    <t>Predict labels:  [0, 1, 0, 1, 1, 2, 1, 1, 1, 2, 1, 2, 0, 0, 0, 0, 2, 1, 1]
+Test labels:  [0, 2, 2, 2, 2, 1, 0, 1, 0, 2, 2, 1, 0, 0, 0, 2, 2, 2, 2]
+accuracy:  0.3684210526315789
+precision:  0.4105263157894737
+recall:  0.3684210526315789
+matrix:  [[4 0 2]
+ [2 1 6]
+ [0 2 2]]</t>
+  </si>
+  <si>
+    <t>Predict labels:  [0, 0, 0, 0, 0, 2, 2, 0, 2, 1, 0, 2, 2, 1, 0, 1, 1, 2, 1]
+Test labels:  [0, 1, 0, 0, 0, 2, 1, 2, 2, 2, 0, 2, 2, 1, 0, 0, 1, 1, 1]
+accuracy:  0.6842105263157895
+precision:  0.7030075187969925
+recall:  0.6842105263157895
+matrix:  [[6 1 1]
+ [1 3 1]
+ [0 2 4]]</t>
+  </si>
+  <si>
+    <t>Predict labels:  [0, 2, 0, 2, 2, 2, 2, 0, 0]
+Test labels:  [1, 0, 0, 1, 1, 2, 2, 1, 2]
+accuracy:  0.3333333333333333
+precision:  0.5925925925925926
+recall:  0.3333333333333333
+matrix:  [[1 2 1]
+ [0 0 0]
+ [1 2 2]]</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -806,7 +958,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -839,6 +991,32 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1395,11 +1573,344 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12D40BFC-7F3E-422C-B0E4-267B76ECCB8E}">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="7" width="12.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="1">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1">
+        <v>32</v>
+      </c>
+      <c r="E1" s="1">
+        <v>64</v>
+      </c>
+      <c r="F1" s="10">
+        <v>128</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0.44</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0.36842105263157798</v>
+      </c>
+      <c r="F2" s="10"/>
+      <c r="G2" s="1">
+        <f>AVERAGE(B2:F2)</f>
+        <v>0.70210526315789445</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>3</v>
+      </c>
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0.31578947368421001</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="1">
+        <f t="shared" ref="G3:G5" si="0">AVERAGE(B3:F3)</f>
+        <v>0.7164473684210525</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>5</v>
+      </c>
+      <c r="B4" s="5">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0.66</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0.36842105263157798</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1">
+        <f t="shared" si="0"/>
+        <v>0.7571052631578945</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5">
+        <v>0.33</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0.68421052631578905</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.5071052631578945</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B6" s="1">
+        <f xml:space="preserve"> AVERAGE(B2:B5)</f>
+        <v>1</v>
+      </c>
+      <c r="C6" s="1">
+        <f t="shared" ref="C6:E6" si="1" xml:space="preserve"> AVERAGE(C2:C5)</f>
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" si="1"/>
+        <v>0.495</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" si="1"/>
+        <v>0.43421052631578871</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1">
+        <f>AVERAGE(G2:G5)</f>
+        <v>0.67069078947368399</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC227D11-1D41-47A8-B89E-5FAD8FAE96FC}">
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="6" width="25.125" style="16" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="14">
+        <v>8</v>
+      </c>
+      <c r="C1" s="14">
+        <v>16</v>
+      </c>
+      <c r="D1" s="14">
+        <v>32</v>
+      </c>
+      <c r="E1" s="14">
+        <v>64</v>
+      </c>
+      <c r="F1" s="15">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="98.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="F2" s="19"/>
+    </row>
+    <row r="3" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="17"/>
+      <c r="B3" s="17">
+        <v>6.5782100999999997</v>
+      </c>
+      <c r="C3" s="18">
+        <v>52.774120000000003</v>
+      </c>
+      <c r="D3" s="17">
+        <v>460.035302099999</v>
+      </c>
+      <c r="E3" s="17">
+        <v>4152.7510418000002</v>
+      </c>
+      <c r="F3" s="19"/>
+    </row>
+    <row r="4" spans="1:6" ht="127.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="14">
+        <v>3</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="F4" s="20"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="21"/>
+      <c r="B5" s="21">
+        <v>6.4831453000000003</v>
+      </c>
+      <c r="C5" s="21">
+        <v>49.292881299999998</v>
+      </c>
+      <c r="D5" s="21">
+        <v>463.55548549999997</v>
+      </c>
+      <c r="E5" s="21">
+        <v>4184.1084795999996</v>
+      </c>
+      <c r="F5" s="21"/>
+    </row>
+    <row r="6" spans="1:6" ht="127.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="21">
+        <v>5</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="F6" s="22"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="21"/>
+      <c r="B7" s="21">
+        <v>6.4743974</v>
+      </c>
+      <c r="C7" s="21">
+        <v>50.270152600000003</v>
+      </c>
+      <c r="D7" s="21">
+        <v>462.06290199999899</v>
+      </c>
+      <c r="E7" s="22">
+        <v>4110.2217518999996</v>
+      </c>
+      <c r="F7" s="21"/>
+    </row>
+    <row r="8" spans="1:6" ht="127.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="21">
+        <v>7</v>
+      </c>
+      <c r="B8" s="21"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="F8" s="22"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D9" s="16">
+        <v>470.8554317</v>
+      </c>
+      <c r="E9" s="16">
+        <v>4105.3102939999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B10" s="16">
+        <f>AVERAGE(B3,B5,B7, B9)</f>
+        <v>6.5119176000000003</v>
+      </c>
+      <c r="C10" s="16">
+        <f t="shared" ref="C10:E10" si="0">AVERAGE(C3,C5,C7, C9)</f>
+        <v>50.779051299999999</v>
+      </c>
+      <c r="D10" s="16">
+        <f t="shared" si="0"/>
+        <v>464.1272803249995</v>
+      </c>
+      <c r="E10" s="16">
+        <f t="shared" si="0"/>
+        <v>4138.0978918249994</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02AAAE75-03E2-42A7-9935-0C2569924726}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="A1:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1556,12 +2067,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCC50B59-58A2-4BAE-A72A-62B797D15620}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1701,11 +2212,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28EC31BA-C032-4E06-88B2-64C630F65F09}">
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
@@ -2026,12 +2537,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4D28ACC-1177-4DBB-A984-3E8EF5177286}">
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2443,7 +2954,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{385E3912-C556-4EE3-B2FB-D46E1DA40619}">
   <dimension ref="A1:F22"/>
   <sheetViews>
